--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_163.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_163.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,14 +16,89 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
     <t>STR</t>
   </si>
   <si>
+    <t>reviewer_ID</t>
+  </si>
+  <si>
+    <t>reviewer_name</t>
+  </si>
+  <si>
+    <t>Review_ID</t>
+  </si>
+  <si>
+    <t>Date_of_scraping</t>
+  </si>
+  <si>
+    <t>ReviewURL</t>
+  </si>
+  <si>
+    <t>Tripadvisor_gcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_dcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_rcode</t>
+  </si>
+  <si>
+    <t>review_date</t>
+  </si>
+  <si>
+    <t>review_title</t>
+  </si>
+  <si>
+    <t>review_content</t>
+  </si>
+  <si>
+    <t>review_rating</t>
+  </si>
+  <si>
+    <t>trip_month</t>
+  </si>
+  <si>
+    <t>trip_purpose</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>rooms</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Cleanliness</t>
+  </si>
+  <si>
+    <t>Sleep Quality</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Picture(yes=1)</t>
+  </si>
+  <si>
+    <t>respondent</t>
+  </si>
+  <si>
+    <t>response_date</t>
+  </si>
+  <si>
+    <t>response_text</t>
+  </si>
+  <si>
     <t>Hotel_Name</t>
   </si>
   <si>
+    <t>State</t>
+  </si>
+  <si>
     <t>City</t>
   </si>
   <si>
@@ -48,6 +123,9 @@
     <t>Quality Inn New Orleans</t>
   </si>
   <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
     <t>New Orleans</t>
   </si>
   <si>
@@ -61,78 +139,6 @@
   </si>
   <si>
     <t>139</t>
-  </si>
-  <si>
-    <t>reviewer_ID</t>
-  </si>
-  <si>
-    <t>reviewer_name</t>
-  </si>
-  <si>
-    <t>Review_ID</t>
-  </si>
-  <si>
-    <t>Date_of_scraping</t>
-  </si>
-  <si>
-    <t>ReviewURL</t>
-  </si>
-  <si>
-    <t>Tripadvisor_gcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_dcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_rcode</t>
-  </si>
-  <si>
-    <t>review_date</t>
-  </si>
-  <si>
-    <t>review_title</t>
-  </si>
-  <si>
-    <t>review_content</t>
-  </si>
-  <si>
-    <t>review_rating</t>
-  </si>
-  <si>
-    <t>trip_month</t>
-  </si>
-  <si>
-    <t>trip_purpose</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>rooms</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Cleanliness</t>
-  </si>
-  <si>
-    <t>Sleep Quality</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>Picture(yes=1)</t>
-  </si>
-  <si>
-    <t>respondent</t>
-  </si>
-  <si>
-    <t>response_date</t>
-  </si>
-  <si>
-    <t>response_text</t>
   </si>
 </sst>
 </file>
@@ -503,34 +509,53 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>32712</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="n">
-        <v>70128</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
-        <v>13</v>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -555,76 +580,63 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T1" t="s">
         <v>33</v>
       </c>
-      <c r="U1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>32712</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="V1" t="s">
+      <c r="C2" t="s">
         <v>35</v>
       </c>
-      <c r="W1" t="s">
+      <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E2" t="n">
+        <v>70128</v>
+      </c>
+      <c r="F2" t="s">
         <v>37</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="G2" t="s">
         <v>38</v>
+      </c>
+      <c r="H2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_163.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_163.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="234">
   <si>
     <t>STR</t>
   </si>
@@ -91,6 +91,589 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>10/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93132-r624562096-Quality_Inn-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>60864</t>
+  </si>
+  <si>
+    <t>93132</t>
+  </si>
+  <si>
+    <t>624562096</t>
+  </si>
+  <si>
+    <t>10/13/2018</t>
+  </si>
+  <si>
+    <t>Can’t say anything good</t>
+  </si>
+  <si>
+    <t>I always try and find a positive where ever I stay and I can’t say anything nice it’s terrible smells disgusting, this is the first time I have ever wrote a bad report. Staff I found not helpful and even saw one with a drink in her hand. My advise is stay somewhere else I couldn’t wait to leave. And it’s now Rodeway inn not Quailty</t>
+  </si>
+  <si>
+    <t>October 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93132-r624555192-Quality_Inn-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>624555192</t>
+  </si>
+  <si>
+    <t>Good hotel</t>
+  </si>
+  <si>
+    <t>Our stay at the Quality inn was pretty good, clean room, friendly staff, good breakfast, convenient location with plenty of parking, quiet and clean environment, would stay here again if in New Orleans again.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Dharmesh B, Public Relations Manager at Quality Inn, responded to this reviewResponded yesterday</t>
+  </si>
+  <si>
+    <t>Responded yesterday</t>
+  </si>
+  <si>
+    <t>Our stay at the Quality inn was pretty good, clean room, friendly staff, good breakfast, convenient location with plenty of parking, quiet and clean environment, would stay here again if in New Orleans again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93132-r601274979-Quality_Inn-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>601274979</t>
+  </si>
+  <si>
+    <t>07/30/2018</t>
+  </si>
+  <si>
+    <t>Horrible</t>
+  </si>
+  <si>
+    <t>Room stunk so bad, went to tell front desk told us we couldn’t chang rooms because we waited an hour brought us some glade spray and told us to us to spray it to remove odor we refused. Finally was able to switch rooms.. Rooms was hot and sticky. Floor had fingernails on it. House keeping came and never changed sheets, didn’t even pick up dirty towels in the bathroom Stayed there 3 nights. Food had mold on it for breakfast. Would never recommend this hotel. Was so scared we had to sleep with lights on. House keeping had kids cleaning rooms and walking around with no shoes on. Got home and our clothes was smelling horrible with ants in our bags.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>Dharmesh B, Guest Relations Manager at Quality Inn, responded to this reviewResponded July 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 30, 2018</t>
+  </si>
+  <si>
+    <t>Room stunk so bad, went to tell front desk told us we couldn’t chang rooms because we waited an hour brought us some glade spray and told us to us to spray it to remove odor we refused. Finally was able to switch rooms.. Rooms was hot and sticky. Floor had fingernails on it. House keeping came and never changed sheets, didn’t even pick up dirty towels in the bathroom Stayed there 3 nights. Food had mold on it for breakfast. Would never recommend this hotel. Was so scared we had to sleep with lights on. House keeping had kids cleaning rooms and walking around with no shoes on. Got home and our clothes was smelling horrible with ants in our bags.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93132-r595835413-Quality_Inn-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>595835413</t>
+  </si>
+  <si>
+    <t>07/13/2018</t>
+  </si>
+  <si>
+    <t>Very pleased! Excellent value!</t>
+  </si>
+  <si>
+    <t>I read through a lot of reviews before booking this hotel. There were a couple of things that I noticed. First of all, most of the complaints came before the hotel was renovated in the past year and under different management. Secondly, I was so impressed at the number of comments the new management took the time to make on reviewers' comments. You can tell by his comments that he actually cares and wants to do the right thing. Likewise, the people who work the front desk and breakfast area (probably his relatives) are equally respectable. 
+We left our cars here for a week while we went on a cruise. They had us park them in the front so there was a view of them from their cameras. They didn't charge us anything to do so, but we did give them a tip.  They seemed thankful and surprised by that. Other hotels raise the daily rate of your room if you are doing this. We figured it was the least we could do. 
+The breakfast was hot and constantly being refilled. Our room was newly remodeled with comfortable bedding and a nice amount of space. I did notice that the measurement for the granite countertop and backsplash were still written on them in black marker. Like the new manager has said in his comments, the bathtub/showers have not been replaced yet. Even though they don't look as new as everything...I read through a lot of reviews before booking this hotel. There were a couple of things that I noticed. First of all, most of the complaints came before the hotel was renovated in the past year and under different management. Secondly, I was so impressed at the number of comments the new management took the time to make on reviewers' comments. You can tell by his comments that he actually cares and wants to do the right thing. Likewise, the people who work the front desk and breakfast area (probably his relatives) are equally respectable. We left our cars here for a week while we went on a cruise. They had us park them in the front so there was a view of them from their cameras. They didn't charge us anything to do so, but we did give them a tip.  They seemed thankful and surprised by that. Other hotels raise the daily rate of your room if you are doing this. We figured it was the least we could do. The breakfast was hot and constantly being refilled. Our room was newly remodeled with comfortable bedding and a nice amount of space. I did notice that the measurement for the granite countertop and backsplash were still written on them in black marker. Like the new manager has said in his comments, the bathtub/showers have not been replaced yet. Even though they don't look as new as everything else, they are functional. The pool area was nice to relax in the heat of NOLA. One thing that stood out the most to me during my stay was the rudeness of the guests in comparison to the friendliness of the staff. That is of no fault to the management, but I don't know how they keep up with running the front desk, throwing away the trash that people leave outside in the landscaping rocks, and clean up all the messes during breakfast that people leave at their tables. They were working their tails off for ungrateful people. I felt for them, but they did it all with a smile on their faces. I would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>Dharmesh B, Guest Relations Manager at Quality Inn, responded to this reviewResponded July 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2018</t>
+  </si>
+  <si>
+    <t>I read through a lot of reviews before booking this hotel. There were a couple of things that I noticed. First of all, most of the complaints came before the hotel was renovated in the past year and under different management. Secondly, I was so impressed at the number of comments the new management took the time to make on reviewers' comments. You can tell by his comments that he actually cares and wants to do the right thing. Likewise, the people who work the front desk and breakfast area (probably his relatives) are equally respectable. 
+We left our cars here for a week while we went on a cruise. They had us park them in the front so there was a view of them from their cameras. They didn't charge us anything to do so, but we did give them a tip.  They seemed thankful and surprised by that. Other hotels raise the daily rate of your room if you are doing this. We figured it was the least we could do. 
+The breakfast was hot and constantly being refilled. Our room was newly remodeled with comfortable bedding and a nice amount of space. I did notice that the measurement for the granite countertop and backsplash were still written on them in black marker. Like the new manager has said in his comments, the bathtub/showers have not been replaced yet. Even though they don't look as new as everything...I read through a lot of reviews before booking this hotel. There were a couple of things that I noticed. First of all, most of the complaints came before the hotel was renovated in the past year and under different management. Secondly, I was so impressed at the number of comments the new management took the time to make on reviewers' comments. You can tell by his comments that he actually cares and wants to do the right thing. Likewise, the people who work the front desk and breakfast area (probably his relatives) are equally respectable. We left our cars here for a week while we went on a cruise. They had us park them in the front so there was a view of them from their cameras. They didn't charge us anything to do so, but we did give them a tip.  They seemed thankful and surprised by that. Other hotels raise the daily rate of your room if you are doing this. We figured it was the least we could do. The breakfast was hot and constantly being refilled. Our room was newly remodeled with comfortable bedding and a nice amount of space. I did notice that the measurement for the granite countertop and backsplash were still written on them in black marker. Like the new manager has said in his comments, the bathtub/showers have not been replaced yet. Even though they don't look as new as everything else, they are functional. The pool area was nice to relax in the heat of NOLA. One thing that stood out the most to me during my stay was the rudeness of the guests in comparison to the friendliness of the staff. That is of no fault to the management, but I don't know how they keep up with running the front desk, throwing away the trash that people leave outside in the landscaping rocks, and clean up all the messes during breakfast that people leave at their tables. They were working their tails off for ungrateful people. I felt for them, but they did it all with a smile on their faces. I would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93132-r587080189-Quality_Inn-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>587080189</t>
+  </si>
+  <si>
+    <t>06/12/2018</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>The hotel has had some renovations since I was t h ers four years ago. The employees were nice and courteous. Breakfast was good and fresh. Our room was good. Air conditioner could have worked better. Beds were nice and pillow top. We were there for five days and the room was kept clean. Which was appreciated.MoreShow less</t>
+  </si>
+  <si>
+    <t>Dharmesh B, Public Relations Manager at Quality Inn, responded to this reviewResponded June 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2018</t>
+  </si>
+  <si>
+    <t>The hotel has had some renovations since I was t h ers four years ago. The employees were nice and courteous. Breakfast was good and fresh. Our room was good. Air conditioner could have worked better. Beds were nice and pillow top. We were there for five days and the room was kept clean. Which was appreciated.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93132-r584666137-Quality_Inn-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>584666137</t>
+  </si>
+  <si>
+    <t>06/02/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Think twice before you book it! </t>
+  </si>
+  <si>
+    <t>Once we stepped in, I knew we made a mistake. It definitely needs a major renovation. The elevator is dated and slow. The bathtub had cracks and the floor was dirty (it looked like pubic hair). Unfortunately it was too late to go somewhere else. We decided to spend the night and leave early next morning. MoreShow less</t>
+  </si>
+  <si>
+    <t>Dharmesh B, Guest Relations Manager at Quality Inn, responded to this reviewResponded June 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 3, 2018</t>
+  </si>
+  <si>
+    <t>Once we stepped in, I knew we made a mistake. It definitely needs a major renovation. The elevator is dated and slow. The bathtub had cracks and the floor was dirty (it looked like pubic hair). Unfortunately it was too late to go somewhere else. We decided to spend the night and leave early next morning. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93132-r584225802-Quality_Inn-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>584225802</t>
+  </si>
+  <si>
+    <t>05/31/2018</t>
+  </si>
+  <si>
+    <t>awesome location and great employees</t>
+  </si>
+  <si>
+    <t>the hotel is clean and centrally located for my needs. i didn't want to stay in downtown so was looking for something out side and found quality inn with great location, about 15 min a way from downtown. it fit my needs and the staff is awesome and a lot of fun to talk to. I definitely would recommend this location to anyone travelingMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Dharmesh B, Guest Relations Manager at Quality Inn, responded to this reviewResponded June 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2018</t>
+  </si>
+  <si>
+    <t>the hotel is clean and centrally located for my needs. i didn't want to stay in downtown so was looking for something out side and found quality inn with great location, about 15 min a way from downtown. it fit my needs and the staff is awesome and a lot of fun to talk to. I definitely would recommend this location to anyone travelingMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93132-r583989625-Quality_Inn-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>583989625</t>
+  </si>
+  <si>
+    <t>05/30/2018</t>
+  </si>
+  <si>
+    <t>enjoyed my time</t>
+  </si>
+  <si>
+    <t>good location right off the interstate and close to downtown. average decorated room but good in cleanliness. We had to tell housekeepers to change our bedding everyday because the hotel policy is to change it every third day of your stay.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Dharmesh B, Guest Relations Manager at Quality Inn, responded to this reviewResponded May 31, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2018</t>
+  </si>
+  <si>
+    <t>good location right off the interstate and close to downtown. average decorated room but good in cleanliness. We had to tell housekeepers to change our bedding everyday because the hotel policy is to change it every third day of your stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93132-r583874594-Quality_Inn-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>583874594</t>
+  </si>
+  <si>
+    <t>Not a bad stay</t>
+  </si>
+  <si>
+    <t>Online reviews for this hotel changed my mind twice before booking my room. I was concerned because they had good price offer in busy weekend. Well The price was good so we could not resist. Over all It was nice stay. I usually dont care for other things as long as I have comfortable sleep at night. The only bed side was, We did not get to use the pool as there was mini party going. We will come back soon.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>Online reviews for this hotel changed my mind twice before booking my room. I was concerned because they had good price offer in busy weekend. Well The price was good so we could not resist. Over all It was nice stay. I usually dont care for other things as long as I have comfortable sleep at night. The only bed side was, We did not get to use the pool as there was mini party going. We will come back soon.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93132-r583869623-Quality_Inn-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>583869623</t>
+  </si>
+  <si>
+    <t>Successful New Orleans trip</t>
+  </si>
+  <si>
+    <t>We stayed for 3 nights. i was with my family and kids. pros: The staff was amazingly helpful with great sense of humor. We were advised to see the places in the town. Any issue with the stay or room  was only one phone call away. Beds were extremely comfortable. good places to eat around. cons: Bathroom look could be improved.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed for 3 nights. i was with my family and kids. pros: The staff was amazingly helpful with great sense of humor. We were advised to see the places in the town. Any issue with the stay or room  was only one phone call away. Beds were extremely comfortable. good places to eat around. cons: Bathroom look could be improved.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93132-r583537398-Quality_Inn-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>583537398</t>
+  </si>
+  <si>
+    <t>05/28/2018</t>
+  </si>
+  <si>
+    <t>Price good room sucked!</t>
+  </si>
+  <si>
+    <t>The low price was a red flag but still booked it and regret the non smoking room stinks and many issues with room. Switches not working for lights. Bedding has many stains. Window curtain has holes. AC made a loud sound. Bathroom floor was nasty and toilet took forever to fill up with water. Only stayed 1 night out of the 4 nights I booked. Needs a over haul this place MoreShow less</t>
+  </si>
+  <si>
+    <t>The low price was a red flag but still booked it and regret the non smoking room stinks and many issues with room. Switches not working for lights. Bedding has many stains. Window curtain has holes. AC made a loud sound. Bathroom floor was nasty and toilet took forever to fill up with water. Only stayed 1 night out of the 4 nights I booked. Needs a over haul this place More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93132-r577732266-Quality_Inn-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>577732266</t>
+  </si>
+  <si>
+    <t>05/03/2018</t>
+  </si>
+  <si>
+    <t>Two excellent stays</t>
+  </si>
+  <si>
+    <t>We stayed here April 27th on thr first floor and May 3rd on the 3rd floor, before and after a cruise. The first night was interesting, the cable for the tv had pulled out of the wall and it wasn't working, but the manager was quick to fix it. He is a great guy despite others' indications... the breakfast is a usual continental breakfast, and is free, they even allow access after hours. There was someone smoking in their room, but they got right on it when I mentioned it. The pool is outdoor and not heated, but a nice size and in the sun with shaded areas. The second night was great, no issues whatsoever. If you have problems, talk to them asap, they do care.MoreShow less</t>
+  </si>
+  <si>
+    <t>Dharmesh B, Manager at Quality Inn, responded to this reviewResponded May 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2018</t>
+  </si>
+  <si>
+    <t>We stayed here April 27th on thr first floor and May 3rd on the 3rd floor, before and after a cruise. The first night was interesting, the cable for the tv had pulled out of the wall and it wasn't working, but the manager was quick to fix it. He is a great guy despite others' indications... the breakfast is a usual continental breakfast, and is free, they even allow access after hours. There was someone smoking in their room, but they got right on it when I mentioned it. The pool is outdoor and not heated, but a nice size and in the sun with shaded areas. The second night was great, no issues whatsoever. If you have problems, talk to them asap, they do care.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93132-r575929573-Quality_Inn-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>575929573</t>
+  </si>
+  <si>
+    <t>04/26/2018</t>
+  </si>
+  <si>
+    <t>Dirty Rooms / Unsanitary Pool/ Negligent Managment</t>
+  </si>
+  <si>
+    <t>We stayed her due to a booking .com deal and upon arrival, the room we were given had vomit on the bathroom door, the floors were not vacuumed, and the bathroom was nasty. We went down and told the desk clerk and she gave us another room and it to looked like the sheets were not cleaned or changed but at this point we were exausted and just wanted to rest. upon going to the pool area there were thousands of dead ants in the pool and baby's diapers and fat looking materials in the pool so that to was out. We simply asked if they had a pool strainer to get the bugs out and stuff floating out and they said they did not have one. This hotel has no smoking signs all over the place but there were cigarette butts in the hotel and all around the front door and pool area so it is not enforced at all. The desk clerk wanted to talk to her boyfriend who was there for over 4 hours more than help us with the situation. This is a rat hole, needs to be condemned because walls had holes in them , needs paint, and room and bathroom renovations are a must. DO NOT STAY HERE, they will do nothing for you!MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed her due to a booking .com deal and upon arrival, the room we were given had vomit on the bathroom door, the floors were not vacuumed, and the bathroom was nasty. We went down and told the desk clerk and she gave us another room and it to looked like the sheets were not cleaned or changed but at this point we were exausted and just wanted to rest. upon going to the pool area there were thousands of dead ants in the pool and baby's diapers and fat looking materials in the pool so that to was out. We simply asked if they had a pool strainer to get the bugs out and stuff floating out and they said they did not have one. This hotel has no smoking signs all over the place but there were cigarette butts in the hotel and all around the front door and pool area so it is not enforced at all. The desk clerk wanted to talk to her boyfriend who was there for over 4 hours more than help us with the situation. This is a rat hole, needs to be condemned because walls had holes in them , needs paint, and room and bathroom renovations are a must. DO NOT STAY HERE, they will do nothing for you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93132-r575896723-Quality_Inn-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>575896723</t>
+  </si>
+  <si>
+    <t>Horrible Service</t>
+  </si>
+  <si>
+    <t>I made my reservations to this hotel along with my flight through a third party. I called ahead of time to let them know I’ll be checking in after midnight. I show up around 12:30 to find out on the hotels negligence that someone with the same exact first and last name checked into my hotel room hours prior to my arrival. I don’t think they’ve heard of checking people’s ID. I was told they couldn’t do anything at around 1 am and I’d have to leave because they have no rooms available.  they didn’t do one thing to rectify the situation except to offer a refund. Mind you the hotels in New Orleans were mostly all at full capacity due to multiple events going on in the city.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I made my reservations to this hotel along with my flight through a third party. I called ahead of time to let them know I’ll be checking in after midnight. I show up around 12:30 to find out on the hotels negligence that someone with the same exact first and last name checked into my hotel room hours prior to my arrival. I don’t think they’ve heard of checking people’s ID. I was told they couldn’t do anything at around 1 am and I’d have to leave because they have no rooms available.  they didn’t do one thing to rectify the situation except to offer a refund. Mind you the hotels in New Orleans were mostly all at full capacity due to multiple events going on in the city.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93132-r574658218-Quality_Inn-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>574658218</t>
+  </si>
+  <si>
+    <t>04/20/2018</t>
+  </si>
+  <si>
+    <t>Cant beat the price and the location.</t>
+  </si>
+  <si>
+    <t>Very easy access of the interstate. A few miles out of the city if you do not need to be in the central business district. Average rooms but all I needed was a clean room with a comfy bed, bathroom/shower facilities and some breakfast. There was ample parking. It is near some restaurants and a Walmart if you forgot any thing.Great pricing, half of what you would find elsewhere. MoreShow less</t>
+  </si>
+  <si>
+    <t>Dharmesh B, Manager at Quality Inn, responded to this reviewResponded April 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 22, 2018</t>
+  </si>
+  <si>
+    <t>Very easy access of the interstate. A few miles out of the city if you do not need to be in the central business district. Average rooms but all I needed was a clean room with a comfy bed, bathroom/shower facilities and some breakfast. There was ample parking. It is near some restaurants and a Walmart if you forgot any thing.Great pricing, half of what you would find elsewhere. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93132-r570567621-Quality_Inn-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>570567621</t>
+  </si>
+  <si>
+    <t>04/02/2018</t>
+  </si>
+  <si>
+    <t>Room yay food boo!!!</t>
+  </si>
+  <si>
+    <t>My husband I decided to stay 2 nights at this hotel due to attending a Pelicans game. On arriving the attendant was very nice we went to our rooms to find out that the knobs on the a/c were broken. When I called the front desk the attendant immediately found us a different room. The second room was great. The room did have a stale smell but it wasn't overwhelming and went away after the a/c was turned on. The hotel was very quiet despite having several guests. The biggest down fall was the breakfast. Very very mediocre. With a lot of guests to feed.  There was one waffle iron which everyone wanted one of course. They offered eggs and sausage. The attendant was in the process of replacing a lot of items maybe they weren't use to that many at one time idk.  We skipped breakfast on the second day it wasn't worth it. I will definitely stay again I will just eat elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>Dharmesh B, Manager at Quality Inn, responded to this reviewResponded April 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 3, 2018</t>
+  </si>
+  <si>
+    <t>My husband I decided to stay 2 nights at this hotel due to attending a Pelicans game. On arriving the attendant was very nice we went to our rooms to find out that the knobs on the a/c were broken. When I called the front desk the attendant immediately found us a different room. The second room was great. The room did have a stale smell but it wasn't overwhelming and went away after the a/c was turned on. The hotel was very quiet despite having several guests. The biggest down fall was the breakfast. Very very mediocre. With a lot of guests to feed.  There was one waffle iron which everyone wanted one of course. They offered eggs and sausage. The attendant was in the process of replacing a lot of items maybe they weren't use to that many at one time idk.  We skipped breakfast on the second day it wasn't worth it. I will definitely stay again I will just eat elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93132-r566320771-Quality_Inn-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>566320771</t>
+  </si>
+  <si>
+    <t>03/13/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Money taken out instead of refunded then manager lies repeatedly </t>
+  </si>
+  <si>
+    <t>Absolutely horrible experience with this hotel, especially the manager Dharmesh B. It started out by finding a condom on the floor of my room upon entering. I was offered a modest 15% off by the front desk. Instead of refunding me this amount, they took it OUT of my account, leaving me paying more for my room than originally. When I called to ask about it, Dharmesh was rude and impatient on the phone, arguing with me that this could not have happened, telling me that he will leave a note for the manager to call me as soon as he returned. I called again later and he said the same thing. Finally, I called later to find out that DHARMESH WAS THE MANAGER AND HE LIED TO ME THE WHOLE TIME. I called corporate and when they contacted the hotel, they were told that Dharmesh had not been at work in a few days for personal reasons while in fact, I had talked to him just the day before as he masqueraded as a lower level employee. Do not stay at this hotel unless you want to have a gross room, pay more for the hotel than promised, then be disrespected and lied to by the general manager.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Dharmesh B, Manager at Quality Inn, responded to this reviewResponded March 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 15, 2018</t>
+  </si>
+  <si>
+    <t>Absolutely horrible experience with this hotel, especially the manager Dharmesh B. It started out by finding a condom on the floor of my room upon entering. I was offered a modest 15% off by the front desk. Instead of refunding me this amount, they took it OUT of my account, leaving me paying more for my room than originally. When I called to ask about it, Dharmesh was rude and impatient on the phone, arguing with me that this could not have happened, telling me that he will leave a note for the manager to call me as soon as he returned. I called again later and he said the same thing. Finally, I called later to find out that DHARMESH WAS THE MANAGER AND HE LIED TO ME THE WHOLE TIME. I called corporate and when they contacted the hotel, they were told that Dharmesh had not been at work in a few days for personal reasons while in fact, I had talked to him just the day before as he masqueraded as a lower level employee. Do not stay at this hotel unless you want to have a gross room, pay more for the hotel than promised, then be disrespected and lied to by the general manager.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93132-r555988934-Quality_Inn-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>555988934</t>
+  </si>
+  <si>
+    <t>01/23/2018</t>
+  </si>
+  <si>
+    <t>safe and sound place</t>
+  </si>
+  <si>
+    <t>Our room was clean, safe and sound. TV did not work first time but it was ok rest of the stay. Kids loved the place. The breakfast was good. good staff. most hotels We been to does not allow you to enter breakfast room after hours, but this one did. Loved their work ethics. We wil return.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Dharmesh B, Manager at Quality Inn, responded to this reviewResponded February 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 4, 2018</t>
+  </si>
+  <si>
+    <t>Our room was clean, safe and sound. TV did not work first time but it was ok rest of the stay. Kids loved the place. The breakfast was good. good staff. most hotels We been to does not allow you to enter breakfast room after hours, but this one did. Loved their work ethics. We wil return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93132-r551587885-Quality_Inn-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>551587885</t>
+  </si>
+  <si>
+    <t>01/04/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean and neat rooms </t>
+  </si>
+  <si>
+    <t>Stayed here for two night. Clean rooms. Loved the staff helpfulness and co operation. Nice hospitality. We felt safe. Just had couple issues with the room. It was resolved.  Will stay again if happen to come toward this side of the town. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Dharmesh B, Manager at Quality Inn, responded to this reviewResponded January 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 5, 2018</t>
+  </si>
+  <si>
+    <t>Stayed here for two night. Clean rooms. Loved the staff helpfulness and co operation. Nice hospitality. We felt safe. Just had couple issues with the room. It was resolved.  Will stay again if happen to come toward this side of the town. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93132-r547082988-Quality_Inn-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>547082988</t>
+  </si>
+  <si>
+    <t>12/13/2017</t>
+  </si>
+  <si>
+    <t>Good place to stay</t>
+  </si>
+  <si>
+    <t>Good people work at this place.  Very helpful and co operative. Recently renovated, still work needed to finish up. I called front desk at 11 pm to fix my TV because it was loosing signal. They came right a way. Fast service. Like it. I been to many places but this one is little different. MoreShow less</t>
+  </si>
+  <si>
+    <t>Dharmesh B, General Manager at Quality Inn, responded to this reviewResponded December 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 14, 2017</t>
+  </si>
+  <si>
+    <t>Good people work at this place.  Very helpful and co operative. Recently renovated, still work needed to finish up. I called front desk at 11 pm to fix my TV because it was loosing signal. They came right a way. Fast service. Like it. I been to many places but this one is little different. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93132-r546997313-Quality_Inn-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>546997313</t>
+  </si>
+  <si>
+    <t>Colorful stay</t>
+  </si>
+  <si>
+    <t>I stayed here for one night. friendly staff and clean rooms, easy access to highway and good food restaurants around.  i experienced minimal noise around. Needs little bit of improvement on bathroom and fitness center. overall satisfied stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here for one night. friendly staff and clean rooms, easy access to highway and good food restaurants around.  i experienced minimal noise around. Needs little bit of improvement on bathroom and fitness center. overall satisfied stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93132-r546987559-Quality_Inn-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>546987559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stood on my expectations </t>
+  </si>
+  <si>
+    <t>I visited my friend in new orleans. I was looking for something close to interstate and allow easy access to downtown. So I picked this hotel because it offered good rate but I was uncertain about the condition of hotel. Nice staff. Comfortable mattress. Quite location. I liked it here. The check in was quick. Something surprising happen, I got pho e call by receptionist and she asked if everything is ok in room. I guess it's a good start. It's good that people still do it. Only suggestion I would give, check refrigerator door in the room, make sure it properly placed. MoreShow less</t>
+  </si>
+  <si>
+    <t>I visited my friend in new orleans. I was looking for something close to interstate and allow easy access to downtown. So I picked this hotel because it offered good rate but I was uncertain about the condition of hotel. Nice staff. Comfortable mattress. Quite location. I liked it here. The check in was quick. Something surprising happen, I got pho e call by receptionist and she asked if everything is ok in room. I guess it's a good start. It's good that people still do it. Only suggestion I would give, check refrigerator door in the room, make sure it properly placed. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93132-r543638903-Quality_Inn-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>543638903</t>
+  </si>
+  <si>
+    <t>11/27/2017</t>
+  </si>
+  <si>
+    <t>Far better than previous stay</t>
+  </si>
+  <si>
+    <t>I am a returned customer. I was told that the hotel has gone through major renovation. First, I did not believe because hotels say that to get more customers. But I had no choice, the town was fully booked. So I had to go with the only available option. The check in was quick. Rooms were nice and clean. Staff were friendly. We only had one issue with the room, we had loose toilet seat. That was it. it was fixed later. I guess I would have to say, this stay was far better then expected. would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Dharmesh B, General Manager at Quality Inn, responded to this reviewResponded November 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 29, 2017</t>
+  </si>
+  <si>
+    <t>I am a returned customer. I was told that the hotel has gone through major renovation. First, I did not believe because hotels say that to get more customers. But I had no choice, the town was fully booked. So I had to go with the only available option. The check in was quick. Rooms were nice and clean. Staff were friendly. We only had one issue with the room, we had loose toilet seat. That was it. it was fixed later. I guess I would have to say, this stay was far better then expected. would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93132-r541951813-Quality_Inn-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>541951813</t>
+  </si>
+  <si>
+    <t>11/19/2017</t>
+  </si>
+  <si>
+    <t>Stay next door at Motel 6 - it’s cheaper and better</t>
+  </si>
+  <si>
+    <t>Wow - what happened with Quality Inn? We thought we can rely on the brand?We stayed in room 423 on Nov. 18, 17 for one night.The good things:- rooms were recently renovated- AC worked- breakfast was already served at 6 am also it officially opens at 7 pm on weekendsThe bad things:- hallways and room smelled (cigarettes, drugs??)- inspection certificate is missing in elevator- zero toilet paper and no tissues in room- hair on the ground in the bathroom- bathroom door didn’t shut- advertised gym is not operational- heater not working- no warm water in shower- very loud neighbors- front desk in the night/morning zero help (“I am not authorized to do anything”. “I can’t call the manager. He won’t answer.”- open joghurt in the fridgeOur room was not the only one with issues. As we checked in a lady complained that her AC didn’t work. At checkout there were several notes at the front desk about defect items.1 star is exactly one star too much for this property.MoreShow less</t>
+  </si>
+  <si>
+    <t>Dharmesh B, Manager at Quality Inn, responded to this reviewResponded November 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 20, 2017</t>
+  </si>
+  <si>
+    <t>Wow - what happened with Quality Inn? We thought we can rely on the brand?We stayed in room 423 on Nov. 18, 17 for one night.The good things:- rooms were recently renovated- AC worked- breakfast was already served at 6 am also it officially opens at 7 pm on weekendsThe bad things:- hallways and room smelled (cigarettes, drugs??)- inspection certificate is missing in elevator- zero toilet paper and no tissues in room- hair on the ground in the bathroom- bathroom door didn’t shut- advertised gym is not operational- heater not working- no warm water in shower- very loud neighbors- front desk in the night/morning zero help (“I am not authorized to do anything”. “I can’t call the manager. He won’t answer.”- open joghurt in the fridgeOur room was not the only one with issues. As we checked in a lady complained that her AC didn’t work. At checkout there were several notes at the front desk about defect items.1 star is exactly one star too much for this property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93132-r523238692-Quality_Inn-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>523238692</t>
+  </si>
+  <si>
+    <t>09/10/2017</t>
+  </si>
+  <si>
+    <t>No need to buy drugs , just breathe the air here</t>
+  </si>
+  <si>
+    <t>Hotel personnel excellent. ONLY good thing about this place. Under going renovation but needs to fall into a sink hole   That would b an improvement. Want weed?  Just breath. Need a shower ?  Don't attempt it here. Water barely trickles outMy credit card company declined the charge. Why? After calling them they informed me that most credit charges there are from  stolen cards. Still want to vacation here? Bring cleaning supplies along w lots of disinfectant Try a war torn country bombed out hotel instead of this place. You'll b safer and it will be more aesthetic. Aside from all that,  very nice. 1 star only because there is not a zero star category MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Hotel personnel excellent. ONLY good thing about this place. Under going renovation but needs to fall into a sink hole   That would b an improvement. Want weed?  Just breath. Need a shower ?  Don't attempt it here. Water barely trickles outMy credit card company declined the charge. Why? After calling them they informed me that most credit charges there are from  stolen cards. Still want to vacation here? Bring cleaning supplies along w lots of disinfectant Try a war torn country bombed out hotel instead of this place. You'll b safer and it will be more aesthetic. Aside from all that,  very nice. 1 star only because there is not a zero star category More</t>
   </si>
   <si>
     <t>Hotel_Name</t>
@@ -558,6 +1141,1575 @@
         <v>24</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>32712</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>32712</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>32712</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>49</v>
+      </c>
+      <c r="X4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>32712</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>57</v>
+      </c>
+      <c r="O5" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>58</v>
+      </c>
+      <c r="X5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>32712</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>57</v>
+      </c>
+      <c r="O6" t="s">
+        <v>39</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>66</v>
+      </c>
+      <c r="X6" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>32712</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>57</v>
+      </c>
+      <c r="O7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>74</v>
+      </c>
+      <c r="X7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>32712</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L8" t="s">
+        <v>81</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>82</v>
+      </c>
+      <c r="O8" t="s">
+        <v>83</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>84</v>
+      </c>
+      <c r="X8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>32712</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J9" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" t="s">
+        <v>90</v>
+      </c>
+      <c r="L9" t="s">
+        <v>91</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O9" t="s">
+        <v>92</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>93</v>
+      </c>
+      <c r="X9" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>32712</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" t="s">
+        <v>89</v>
+      </c>
+      <c r="K10" t="s">
+        <v>98</v>
+      </c>
+      <c r="L10" t="s">
+        <v>99</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>100</v>
+      </c>
+      <c r="O10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>93</v>
+      </c>
+      <c r="X10" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>32712</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" t="s">
+        <v>89</v>
+      </c>
+      <c r="K11" t="s">
+        <v>104</v>
+      </c>
+      <c r="L11" t="s">
+        <v>105</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>100</v>
+      </c>
+      <c r="O11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>93</v>
+      </c>
+      <c r="X11" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>32712</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>108</v>
+      </c>
+      <c r="J12" t="s">
+        <v>109</v>
+      </c>
+      <c r="K12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L12" t="s">
+        <v>111</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>100</v>
+      </c>
+      <c r="O12" t="s">
+        <v>92</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>93</v>
+      </c>
+      <c r="X12" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>32712</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>114</v>
+      </c>
+      <c r="J13" t="s">
+        <v>115</v>
+      </c>
+      <c r="K13" t="s">
+        <v>116</v>
+      </c>
+      <c r="L13" t="s">
+        <v>117</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>100</v>
+      </c>
+      <c r="O13" t="s">
+        <v>34</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>118</v>
+      </c>
+      <c r="X13" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>32712</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>122</v>
+      </c>
+      <c r="J14" t="s">
+        <v>123</v>
+      </c>
+      <c r="K14" t="s">
+        <v>124</v>
+      </c>
+      <c r="L14" t="s">
+        <v>125</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>82</v>
+      </c>
+      <c r="O14" t="s">
+        <v>39</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>118</v>
+      </c>
+      <c r="X14" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>32712</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>128</v>
+      </c>
+      <c r="J15" t="s">
+        <v>123</v>
+      </c>
+      <c r="K15" t="s">
+        <v>129</v>
+      </c>
+      <c r="L15" t="s">
+        <v>130</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>82</v>
+      </c>
+      <c r="O15" t="s">
+        <v>131</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>118</v>
+      </c>
+      <c r="X15" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>32712</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>133</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>134</v>
+      </c>
+      <c r="J16" t="s">
+        <v>135</v>
+      </c>
+      <c r="K16" t="s">
+        <v>136</v>
+      </c>
+      <c r="L16" t="s">
+        <v>137</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>82</v>
+      </c>
+      <c r="O16" t="s">
+        <v>131</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>138</v>
+      </c>
+      <c r="X16" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>32712</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>142</v>
+      </c>
+      <c r="J17" t="s">
+        <v>143</v>
+      </c>
+      <c r="K17" t="s">
+        <v>144</v>
+      </c>
+      <c r="L17" t="s">
+        <v>145</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>82</v>
+      </c>
+      <c r="O17" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>146</v>
+      </c>
+      <c r="X17" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>32712</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" t="s">
+        <v>150</v>
+      </c>
+      <c r="J18" t="s">
+        <v>151</v>
+      </c>
+      <c r="K18" t="s">
+        <v>152</v>
+      </c>
+      <c r="L18" t="s">
+        <v>153</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>154</v>
+      </c>
+      <c r="O18" t="s">
+        <v>92</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>155</v>
+      </c>
+      <c r="X18" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>32712</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>158</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s">
+        <v>159</v>
+      </c>
+      <c r="J19" t="s">
+        <v>160</v>
+      </c>
+      <c r="K19" t="s">
+        <v>161</v>
+      </c>
+      <c r="L19" t="s">
+        <v>162</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>163</v>
+      </c>
+      <c r="O19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>164</v>
+      </c>
+      <c r="X19" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>32712</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>167</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" t="s">
+        <v>168</v>
+      </c>
+      <c r="J20" t="s">
+        <v>169</v>
+      </c>
+      <c r="K20" t="s">
+        <v>170</v>
+      </c>
+      <c r="L20" t="s">
+        <v>171</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>172</v>
+      </c>
+      <c r="O20" t="s">
+        <v>39</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>173</v>
+      </c>
+      <c r="X20" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>32712</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>176</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" t="s">
+        <v>177</v>
+      </c>
+      <c r="J21" t="s">
+        <v>178</v>
+      </c>
+      <c r="K21" t="s">
+        <v>179</v>
+      </c>
+      <c r="L21" t="s">
+        <v>180</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>172</v>
+      </c>
+      <c r="O21" t="s">
+        <v>39</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>181</v>
+      </c>
+      <c r="X21" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>32712</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>184</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s">
+        <v>185</v>
+      </c>
+      <c r="J22" t="s">
+        <v>178</v>
+      </c>
+      <c r="K22" t="s">
+        <v>186</v>
+      </c>
+      <c r="L22" t="s">
+        <v>187</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>172</v>
+      </c>
+      <c r="O22" t="s">
+        <v>83</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>181</v>
+      </c>
+      <c r="X22" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>32712</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>189</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" t="s">
+        <v>190</v>
+      </c>
+      <c r="J23" t="s">
+        <v>178</v>
+      </c>
+      <c r="K23" t="s">
+        <v>191</v>
+      </c>
+      <c r="L23" t="s">
+        <v>192</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>172</v>
+      </c>
+      <c r="O23" t="s">
+        <v>92</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>181</v>
+      </c>
+      <c r="X23" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>32712</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" t="s">
+        <v>194</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s">
+        <v>195</v>
+      </c>
+      <c r="J24" t="s">
+        <v>196</v>
+      </c>
+      <c r="K24" t="s">
+        <v>197</v>
+      </c>
+      <c r="L24" t="s">
+        <v>198</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>199</v>
+      </c>
+      <c r="O24" t="s">
+        <v>39</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>200</v>
+      </c>
+      <c r="X24" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>32712</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" t="s">
+        <v>203</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" t="s">
+        <v>204</v>
+      </c>
+      <c r="J25" t="s">
+        <v>205</v>
+      </c>
+      <c r="K25" t="s">
+        <v>206</v>
+      </c>
+      <c r="L25" t="s">
+        <v>207</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>199</v>
+      </c>
+      <c r="O25" t="s">
+        <v>39</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>208</v>
+      </c>
+      <c r="X25" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>32712</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" t="s">
+        <v>211</v>
+      </c>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" t="s">
+        <v>212</v>
+      </c>
+      <c r="J26" t="s">
+        <v>213</v>
+      </c>
+      <c r="K26" t="s">
+        <v>214</v>
+      </c>
+      <c r="L26" t="s">
+        <v>215</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>216</v>
+      </c>
+      <c r="O26" t="s">
+        <v>83</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>208</v>
+      </c>
+      <c r="X26" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>217</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
@@ -580,31 +2732,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>218</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>219</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>220</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>221</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>222</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>223</v>
       </c>
       <c r="H1" t="s">
-        <v>31</v>
+        <v>224</v>
       </c>
       <c r="I1" t="s">
-        <v>32</v>
+        <v>225</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2">
@@ -612,31 +2764,31 @@
         <v>32712</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>227</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>228</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>229</v>
       </c>
       <c r="E2" t="n">
         <v>70128</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>230</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>231</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>232</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>233</v>
       </c>
       <c r="J2" t="s">
-        <v>39</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
